--- a/bh3/497060958927547036_2021-03-01_11-30-23.xlsx
+++ b/bh3/497060958927547036_2021-03-01_11-30-23.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-07 14:20:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44262.59773148148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4206039859</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-03 00:48:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44258.03333333333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>4206945723</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:17:18</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44257.80368055555</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4206039859</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-02 09:13:45</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44257.38454861111</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -843,10 +851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-02 01:51:13</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44257.0772337963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -916,10 +922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-02 01:43:46</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44257.07206018519</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -987,10 +991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-02 01:24:08</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44257.05842592593</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1064,10 +1066,8 @@
           <t>4207142775</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-02 00:16:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44257.01141203703</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1132,10 +1132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:41:12</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44256.98694444444</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1203,10 +1201,8 @@
           <t>4206951891</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:36:33</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44256.98371527778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1274,10 +1270,8 @@
           <t>4206945723</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:35:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44256.98274305555</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1353,10 +1347,8 @@
           <t>4206934921</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:34:42</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44256.98243055555</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1432,10 +1424,8 @@
           <t>4206943297</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:34:36</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44256.98236111111</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1511,10 +1501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:18:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44256.97094907407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1582,10 +1570,8 @@
           <t>4206669148</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:45:42</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44256.94840277778</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1653,10 +1639,8 @@
           <t>4203911261</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:33:26</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44256.93988425926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1732,10 +1716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:24:10</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44256.89178240741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1811,10 +1793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:02:33</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44256.87677083333</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1882,10 +1862,8 @@
           <t>4206039859</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:46:23</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44256.86554398148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1953,10 +1931,8 @@
           <t>4206029905</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:43:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44256.86371527778</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:42:06</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44256.82090277778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2096,10 +2070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:55:24</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44256.78847222222</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2175,10 +2147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:54:22</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44256.78775462963</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2254,10 +2224,8 @@
           <t>4205456934</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:45:00</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44256.78125</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2329,10 +2297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:13:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44256.75920138889</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2408,10 +2374,8 @@
           <t>4203952249</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:07:11</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44256.75498842593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2475,10 +2439,8 @@
           <t>4205177543</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:43:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44256.73861111111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2554,10 +2516,8 @@
           <t>4205170825</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:40:55</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44256.73674768519</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2633,10 +2593,8 @@
           <t>4205162729</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:40:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44256.73626157407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2704,10 +2662,8 @@
           <t>4205136906</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:32:55</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44256.73119212963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2767,10 +2723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:28:34</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44256.72817129629</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2834,10 +2788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-01 17:25:20</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44256.72592592592</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2901,10 +2853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:42:24</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44256.69611111111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2980,10 +2930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:38:51</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44256.69364583334</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3051,10 +2999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:38:37</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44256.6934837963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3126,10 +3072,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:35:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44256.69106481481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3197,10 +3141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:20:37</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44256.68098379629</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3272,10 +3214,8 @@
           <t>4204858104</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:14:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44256.67674768518</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3347,10 +3287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:13:34</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44256.67608796297</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3427,10 +3365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:13:23</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44256.67596064815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3498,10 +3434,8 @@
           <t>4203952249</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:13:19</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44256.67591435185</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -3573,10 +3507,8 @@
           <t>4204825312</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:02:43</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44256.66855324074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3640,10 +3572,8 @@
           <t>4204816511</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:01:59</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44256.66804398148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3716,10 +3646,8 @@
           <t>4204798267</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:55:48</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44256.66375</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3795,10 +3723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:53:30</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44256.66215277778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3870,10 +3796,8 @@
           <t>4204067315</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:38:20</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44256.65162037037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3941,10 +3865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:20:50</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44256.63946759259</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4008,10 +3930,8 @@
           <t>4204614236</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:19:58</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44256.63886574074</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4087,10 +4007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:15:47</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44256.63596064815</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4167,10 +4085,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:07:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44256.63030092593</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4238,10 +4154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:06:20</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44256.62939814815</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4309,10 +4223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-01 15:03:15</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44256.62725694444</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4384,10 +4296,8 @@
           <t>4204614236</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:54:53</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44256.62144675926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4451,10 +4361,8 @@
           <t>4204574625</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:41:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44256.61196759259</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4522,10 +4430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:37:13</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44256.60917824074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4601,10 +4507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:36:59</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44256.60901620371</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4680,10 +4584,8 @@
           <t>4204565494</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:35:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44256.60765046296</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4759,10 +4661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:32:40</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44256.60601851852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4833,10 +4733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:29:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44256.60409722223</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4908,10 +4806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:27:13</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44256.60223379629</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4978,10 +4874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:25:17</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44256.60089120371</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5053,10 +4947,8 @@
           <t>4204535733</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:25:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44256.60078703704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5128,10 +5020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:11:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44256.59100694444</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5207,10 +5097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-01 14:09:08</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44256.58967592593</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5282,10 +5170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:51:27</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44256.57739583333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5353,10 +5239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:49:34</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44256.57608796296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5424,10 +5308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:45:28</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44256.57324074074</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5495,10 +5377,8 @@
           <t>4204394756</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:43:08</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44256.57162037037</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5570,10 +5450,8 @@
           <t>4204400850</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:42:10</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44256.57094907408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5645,10 +5523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:41:37</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44256.57056712963</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5720,10 +5596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:41:03</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44256.57017361111</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5799,10 +5673,8 @@
           <t>4204386008</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:37:53</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44256.56797453704</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5870,10 +5742,8 @@
           <t>4204380541</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:37:23</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44256.56762731481</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5941,10 +5811,8 @@
           <t>4204385131</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:37:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44256.5674537037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6012,10 +5880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:35:31</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44256.56633101852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6075,10 +5941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:30:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44256.56302083333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6146,10 +6010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:29:48</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44256.56236111111</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6213,10 +6075,8 @@
           <t>4204355866</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:29:05</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44256.56186342592</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6280,10 +6140,8 @@
           <t>4204335361</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:24:36</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44256.55875</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6359,10 +6217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:23:19</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44256.5578587963</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
@@ -6438,10 +6294,8 @@
           <t>4204067315</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:20:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44256.55612268519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6517,10 +6371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:17:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44256.55405092592</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6596,10 +6448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:17:25</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44256.55376157408</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6667,10 +6517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:15:10</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44256.55219907407</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6738,10 +6586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:12:44</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44256.55050925926</v>
       </c>
       <c r="I86" t="n">
         <v>10</v>
@@ -6809,10 +6655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:11:09</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44256.54940972223</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6884,10 +6728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:11:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44256.54936342593</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6960,10 +6802,8 @@
           <t>4204271789</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:08:13</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44256.54737268519</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7035,10 +6875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:07:05</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44256.54658564815</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7106,10 +6944,8 @@
           <t>4204261907</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:06:39</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44256.54628472222</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7185,10 +7021,8 @@
           <t>4203934658</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:06:09</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44256.5459375</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7260,10 +7094,8 @@
           <t>4204265305</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:05:55</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44256.54577546296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7339,10 +7171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:05:06</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44256.54520833334</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7410,10 +7240,8 @@
           <t>4204244192</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:02:45</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44256.54357638889</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7481,10 +7309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:02:38</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44256.54349537037</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7548,10 +7374,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:02:32</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44256.54342592593</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7623,10 +7447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:02:22</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44256.54331018519</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7694,10 +7516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:00:13</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44256.54181712963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7769,10 +7589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:59:47</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44256.5415162037</v>
       </c>
       <c r="I100" t="n">
         <v>5</v>
@@ -7836,10 +7654,8 @@
           <t>4204232197</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:59:43</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44256.54146990741</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7911,10 +7727,8 @@
           <t>4204231819</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:59:27</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44256.54128472223</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7990,10 +7804,8 @@
           <t>4204230618</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:58:38</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44256.54071759259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8069,10 +7881,8 @@
           <t>4204224585</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:58:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44256.54068287037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8144,10 +7954,8 @@
           <t>4204228008</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:58:26</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44256.5405787037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8215,10 +8023,8 @@
           <t>4204222900</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:57:24</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44256.53986111111</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8294,10 +8100,8 @@
           <t>4204214900</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:56:17</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44256.53908564815</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8365,10 +8169,8 @@
           <t>4204214880</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:56:16</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44256.53907407408</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8432,10 +8234,8 @@
           <t>4204214652</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:56:08</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44256.53898148148</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8507,10 +8307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:55:28</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44256.53851851852</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8586,10 +8384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:51:57</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44256.53607638889</v>
       </c>
       <c r="I111" t="n">
         <v>10</v>
@@ -8657,10 +8453,8 @@
           <t>4204200659</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:51:47</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44256.53596064815</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8736,10 +8530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:50:52</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44256.53532407407</v>
       </c>
       <c r="I113" t="n">
         <v>82</v>
@@ -8811,10 +8603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:49:16</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44256.53421296296</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8890,10 +8680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:49:07</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44256.5341087963</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8961,10 +8749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:48:46</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44256.53386574074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9036,10 +8822,8 @@
           <t>4204179035</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:48:02</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44256.53335648148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9115,10 +8899,8 @@
           <t>4203926722</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:45:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44256.53157407408</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9178,10 +8960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:45:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44256.53140046296</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9257,10 +9037,8 @@
           <t>4204166542</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:43:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44256.5303587963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9336,10 +9114,8 @@
           <t>4204161893</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:43:18</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44256.53006944444</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9411,10 +9187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:43:00</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44256.52986111111</v>
       </c>
       <c r="I122" t="n">
         <v>20</v>
@@ -9482,10 +9256,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:41:48</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44256.52902777777</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9553,10 +9325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:40:27</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44256.52809027778</v>
       </c>
       <c r="I124" t="n">
         <v>8</v>
@@ -9624,10 +9394,8 @@
           <t>4204143773</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:40:27</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44256.52809027778</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9695,10 +9463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:38:37</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44256.52681712963</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9770,10 +9536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:37:08</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44256.52578703704</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9841,10 +9605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:36:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44256.52511574074</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9921,10 +9683,8 @@
           <t>4204123522</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:34:52</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44256.52421296296</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -10000,10 +9760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:34:35</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44256.5240162037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10079,10 +9837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:33:40</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44256.52337962963</v>
       </c>
       <c r="I131" t="n">
         <v>4</v>
@@ -10155,10 +9911,8 @@
           <t>4203952249</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:32:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44256.52259259259</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10226,10 +9980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:31:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44256.52199074074</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10301,10 +10053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:31:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44256.52194444444</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10376,10 +10126,8 @@
           <t>4204103745</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:31:13</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44256.52167824074</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10452,10 +10200,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:30:52</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44256.52143518518</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10523,10 +10269,8 @@
           <t>4204106628</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:30:07</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44256.52091435185</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10602,10 +10346,8 @@
           <t>4204101961</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:30:01</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44256.52084490741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10673,10 +10415,8 @@
           <t>4204096895</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:29:01</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44256.52015046297</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10748,10 +10488,8 @@
           <t>4204089410</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:28:17</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44256.5196412037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10819,10 +10557,8 @@
           <t>4204088381</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:27:36</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44256.51916666667</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10894,10 +10630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:26:59</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44256.51873842593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10973,10 +10707,8 @@
           <t>4203933227</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:26:44</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44256.51856481482</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -11052,10 +10784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:26:26</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44256.51835648148</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -11119,10 +10849,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:25:15</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44256.51753472222</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11198,10 +10926,8 @@
           <t>4203934658</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:24:22</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44256.51692129629</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11277,10 +11003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:24:17</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44256.51686342592</v>
       </c>
       <c r="I147" t="n">
         <v>4</v>
@@ -11348,10 +11072,8 @@
           <t>4204077111</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:23:36</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44256.51638888889</v>
       </c>
       <c r="I148" t="n">
         <v>17</v>
@@ -11419,10 +11141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:23:30</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44256.51631944445</v>
       </c>
       <c r="I149" t="n">
         <v>39</v>
@@ -11486,10 +11206,8 @@
           <t>4204076709</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:23:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44256.51618055555</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11565,10 +11283,8 @@
           <t>4204067315</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:22:28</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44256.51560185185</v>
       </c>
       <c r="I151" t="n">
         <v>18</v>
@@ -11636,10 +11352,8 @@
           <t>4204064705</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:21:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44256.51521990741</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11703,10 +11417,8 @@
           <t>4204064699</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:21:55</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44256.51521990741</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11774,10 +11486,8 @@
           <t>4204066324</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:21:47</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44256.51512731481</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11853,10 +11563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:21:44</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44256.51509259259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11924,10 +11632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:19:49</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44256.51376157408</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11999,10 +11705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:18:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44256.51302083334</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12078,10 +11782,8 @@
           <t>4204037974</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:16:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44256.51114583333</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12153,10 +11855,8 @@
           <t>4204036874</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:15:17</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44256.51061342593</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12228,10 +11928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:15:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44256.51043981482</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12299,10 +11997,8 @@
           <t>4203925331</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:14:46</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44256.51025462963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12366,10 +12062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:14:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44256.51008101852</v>
       </c>
       <c r="I162" t="n">
         <v>4</v>
@@ -12437,10 +12131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:14:04</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44256.50976851852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12513,10 +12205,8 @@
           <t>4204030750</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:12:11</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44256.50846064815</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12588,10 +12278,8 @@
           <t>4204021999</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:11:47</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44256.50818287037</v>
       </c>
       <c r="I165" t="n">
         <v>4</v>
@@ -12655,10 +12343,8 @@
           <t>4204021569</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:11:28</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44256.50796296296</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12730,10 +12416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:11:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44256.50790509259</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12801,10 +12485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:10:36</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44256.50736111111</v>
       </c>
       <c r="I168" t="n">
         <v>32</v>
@@ -12868,10 +12550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:10:16</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44256.50712962963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12939,10 +12619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:08:48</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44256.50611111111</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13018,10 +12696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:07:59</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44256.50554398148</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13098,10 +12774,8 @@
           <t>4204003403</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:07:00</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44256.50486111111</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13177,10 +12851,8 @@
           <t>4204002683</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:06:29</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44256.50450231481</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13252,10 +12924,8 @@
           <t>4204001821</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:05:54</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44256.50409722222</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13323,10 +12993,8 @@
           <t>4204000922</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:05:17</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44256.50366898148</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13391,10 +13059,8 @@
           <t>4203952249</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:04:33</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44256.50315972222</v>
       </c>
       <c r="I176" t="n">
         <v>24</v>
@@ -13454,10 +13120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:03:24</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44256.50236111111</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13521,10 +13185,8 @@
           <t>4203982844</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:03:03</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44256.50211805556</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13596,10 +13258,8 @@
           <t>4203981664</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:02:13</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44256.50153935186</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13675,10 +13335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:01:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44256.50114583333</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13746,10 +13404,8 @@
           <t>4203921054</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:01:16</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44256.50087962963</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13817,10 +13473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:00:04</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44256.5000462963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13888,10 +13542,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:00:04</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44256.5000462963</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13959,10 +13611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:59:44</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44256.49981481482</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14038,10 +13688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:59:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44256.49943287037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14117,10 +13765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:58:29</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44256.49894675926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14192,10 +13838,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:58:27</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44256.49892361111</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14267,10 +13911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:58:07</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44256.49869212963</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14346,10 +13988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:58:06</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44256.49868055555</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14421,10 +14061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:58:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44256.49863425926</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14496,10 +14134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:57:47</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44256.49846064814</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14567,10 +14203,8 @@
           <t>4203970507</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:57:42</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44256.49840277778</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14642,10 +14276,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:57:18</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44256.498125</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14713,10 +14345,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:57:05</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44256.49797453704</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14784,10 +14414,8 @@
           <t>4203954606</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44256.49782407407</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14859,10 +14487,8 @@
           <t>4203944148</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:39</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44256.49767361111</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14938,10 +14564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44256.49763888889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15005,10 +14629,8 @@
           <t>4203954247</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44256.49760416667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15084,10 +14706,8 @@
           <t>4203944148</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:19</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44256.49744212963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15159,10 +14779,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:56:17</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44256.49741898148</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15230,10 +14848,8 @@
           <t>4203953219</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:55:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44256.49701388889</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15305,10 +14921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:55:28</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44256.49685185185</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15380,10 +14994,8 @@
           <t>4203938564</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:55:22</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44256.4967824074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15455,10 +15067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:55:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44256.49674768518</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15534,10 +15144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:55:12</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44256.49666666667</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15601,10 +15209,8 @@
           <t>4203952249</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:53</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44256.49644675926</v>
       </c>
       <c r="I206" t="n">
         <v>50</v>
@@ -15672,10 +15278,8 @@
           <t>4203952129</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44256.49638888889</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15747,10 +15351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:41</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44256.49630787037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15826,10 +15428,8 @@
           <t>4203951813</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:32</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44256.4962037037</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15893,10 +15493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:29</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44256.49616898148</v>
       </c>
       <c r="I210" t="n">
         <v>17</v>
@@ -15972,10 +15570,8 @@
           <t>4203956354</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:54:13</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44256.4959837963</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -16043,10 +15639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:53:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44256.49582175926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16115,10 +15709,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:53:46</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44256.4956712963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16190,10 +15782,8 @@
           <t>4203955656</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:53:40</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44256.49560185185</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16261,10 +15851,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:53:28</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44256.49546296296</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16332,10 +15920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:53:09</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44256.49524305556</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16411,10 +15997,8 @@
           <t>4203944148</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:52:29</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44256.49478009259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16486,10 +16070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:52:19</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44256.49466435185</v>
       </c>
       <c r="I218" t="n">
         <v>9</v>
@@ -16557,10 +16139,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:52:06</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44256.49451388889</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16632,10 +16212,8 @@
           <t>4203938564</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:51:47</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44256.49429398148</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16707,10 +16285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:51:40</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44256.49421296296</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16783,10 +16359,8 @@
           <t>4203934658</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:51:16</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44256.49393518519</v>
       </c>
       <c r="I222" t="n">
         <v>14</v>
@@ -16854,10 +16428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:51:13</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44256.49390046296</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16921,10 +16493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:50:59</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44256.49373842592</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16992,10 +16562,8 @@
           <t>4203942054</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:50:42</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44256.49354166666</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17067,10 +16635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:50:29</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44256.4933912037</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17146,10 +16712,8 @@
           <t>4203933699</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:50:28</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44256.49337962963</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17209,10 +16773,8 @@
           <t>4203933227</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:50:04</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44256.49310185185</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -17288,10 +16850,8 @@
           <t>4203936461</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:49:58</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44256.49303240741</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17363,10 +16923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:49:43</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44256.49285879629</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17434,10 +16992,8 @@
           <t>4203932639</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:49:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44256.49274305555</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17506,10 +17062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:49:12</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44256.4925</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17588,10 +17142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:49:01</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44256.49237268518</v>
       </c>
       <c r="I233" t="n">
         <v>219</v>
@@ -17667,10 +17219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:54</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44256.49229166667</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17738,10 +17288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:37</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44256.49209490741</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17809,10 +17357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:32</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44256.49203703704</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17880,10 +17426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:31</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44256.49202546296</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17960,10 +17504,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:13</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44256.49181712963</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18035,10 +17577,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:03</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44256.49170138889</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -18106,10 +17646,8 @@
           <t>4203928878</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:58</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44256.49164351852</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18169,10 +17707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:55</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44256.4916087963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18248,10 +17784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:45</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44256.49149305555</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18323,10 +17857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:43</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44256.49146990741</v>
       </c>
       <c r="I243" t="n">
         <v>8</v>
@@ -18390,10 +17922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:29</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44256.49130787037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18469,10 +17999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:27</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44256.49128472222</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18548,10 +18076,8 @@
           <t>4203923411</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44256.49128472222</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18623,10 +18149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:12</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44256.49111111111</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18702,10 +18226,8 @@
           <t>4203923039</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:47:07</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44256.49105324074</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18782,10 +18304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:57</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44256.4909375</v>
       </c>
       <c r="I249" t="n">
         <v>215</v>
@@ -18853,10 +18373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:53</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44256.49089120371</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18928,10 +18446,8 @@
           <t>4203911261</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:39</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44256.49072916667</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18999,10 +18515,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:26</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44256.49057870371</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -19074,10 +18588,8 @@
           <t>4203926722</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44256.49037037037</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -19153,10 +18665,8 @@
           <t>4203921860</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:07</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44256.4903587963</v>
       </c>
       <c r="I254" t="n">
         <v>4</v>
@@ -19224,10 +18734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44256.49034722222</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19303,10 +18811,8 @@
           <t>4203918584</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:06</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44256.49034722222</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19374,10 +18880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:45:47</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44256.49012731481</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19449,10 +18953,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:45:38</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44256.49002314815</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19524,10 +19026,8 @@
           <t>4203921054</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:45:24</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44256.48986111111</v>
       </c>
       <c r="I259" t="n">
         <v>48</v>
@@ -19599,10 +19099,8 @@
           <t>4203920885</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:45:14</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44256.48974537037</v>
       </c>
       <c r="I260" t="n">
         <v>62</v>
@@ -19666,10 +19164,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:55</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44256.48952546297</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19733,10 +19229,8 @@
           <t>4203925331</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:54</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44256.48951388889</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19812,10 +19306,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:33</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44256.48927083334</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19891,10 +19383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:28</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44256.48921296297</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19970,10 +19460,8 @@
           <t>4203909768</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:14</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44256.48905092593</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20049,10 +19537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:11</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44256.4890162037</v>
       </c>
       <c r="I266" t="n">
         <v>6</v>
@@ -20124,10 +19610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:44:04</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44256.48893518518</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20191,10 +19675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:43:43</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44256.48869212963</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20270,10 +19752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:43:36</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44256.48861111111</v>
       </c>
       <c r="I269" t="n">
         <v>28</v>
@@ -20349,10 +19829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:43:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44256.48847222222</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20412,10 +19890,8 @@
           <t>4203905865</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:43:13</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44256.4883449074</v>
       </c>
       <c r="I271" t="n">
         <v>19</v>
@@ -20487,10 +19963,8 @@
           <t>4203913389</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:43:11</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44256.48832175926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20566,10 +20040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:36</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44256.48791666667</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20641,10 +20113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:30</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44256.48784722222</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20716,10 +20186,8 @@
           <t>4203912442</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:23</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44256.4877662037</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20795,10 +20263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:17</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44256.48769675926</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20874,10 +20340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:10</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44256.48761574074</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20945,10 +20409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:42:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44256.48752314815</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21008,10 +20470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44256.48724537037</v>
       </c>
       <c r="I279" t="n">
         <v>9</v>
@@ -21079,10 +20539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:35</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44256.48721064815</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21150,10 +20608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:25</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44256.48709490741</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21217,10 +20673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:25</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44256.48709490741</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21284,10 +20738,8 @@
           <t>4203911261</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:24</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44256.48708333333</v>
       </c>
       <c r="I283" t="n">
         <v>35</v>
@@ -21363,10 +20815,8 @@
           <t>4203903063</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:41:22</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44256.48706018519</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21427,10 +20877,8 @@
           <t>4203905853</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:40:56</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44256.48675925926</v>
       </c>
       <c r="I285" t="n">
         <v>7</v>
@@ -21490,10 +20938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:40:31</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44256.48646990741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21557,10 +21003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:40:20</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44256.48634259259</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21636,10 +21080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:40:02</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44256.48613425926</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21699,10 +21141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:40:01</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44256.48612268519</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21766,10 +21206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:39:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44256.48581018519</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21837,10 +21275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:39:34</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44256.48581018519</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21915,10 +21351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:39:18</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44256.485625</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21986,10 +21420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:39:11</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44256.48554398148</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22057,10 +21489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:39:04</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44256.48546296296</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22124,10 +21554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:38:28</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44256.48504629629</v>
       </c>
       <c r="I295" t="n">
         <v>73</v>
@@ -22202,10 +21630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:38:22</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44256.48497685185</v>
       </c>
       <c r="I296" t="n">
         <v>11</v>
@@ -22281,10 +21707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:38:12</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44256.48486111111</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22348,10 +21772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:38:05</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44256.48478009259</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22427,10 +21849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:38:03</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44256.48475694445</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22504,10 +21924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:37:39</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44256.48447916667</v>
       </c>
       <c r="I300" t="n">
         <v>1109</v>
@@ -22571,10 +21989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:37:27</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44256.48434027778</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22638,10 +22054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:37:15</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44256.48420138889</v>
       </c>
       <c r="I302" t="n">
         <v>17</v>
@@ -22717,10 +22131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:37:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44256.48402777778</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22792,10 +22204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:36:54</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44256.48395833333</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22871,10 +22281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:36:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44256.48371527778</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22950,10 +22358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:36:26</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44256.48363425926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23021,10 +22427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:35:50</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44256.48321759259</v>
       </c>
       <c r="I307" t="n">
         <v>14</v>
@@ -23088,10 +22492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:35:45</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44256.48315972222</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23155,10 +22557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:35:26</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44256.48293981481</v>
       </c>
       <c r="I309" t="n">
         <v>10</v>
@@ -23223,10 +22623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:35:02</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44256.48266203704</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23302,10 +22700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:54</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44256.48256944444</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23373,10 +22769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:27</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44256.48225694444</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23448,10 +22842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:25</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44256.4822337963</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23530,10 +22922,8 @@
           <t>4203878645</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:25</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44256.4822337963</v>
       </c>
       <c r="I314" t="n">
         <v>7</v>
@@ -23597,10 +22987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:05</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44256.48200231481</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23664,10 +23052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:34:01</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44256.48195601852</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23739,10 +23125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:44</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44256.48175925926</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23810,10 +23194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:40</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44256.48171296297</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23885,10 +23267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:37</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44256.48167824074</v>
       </c>
       <c r="I319" t="n">
         <v>888</v>
@@ -23964,10 +23344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:37</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44256.48167824074</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24043,10 +23421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44256.48148148148</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24122,10 +23498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:17</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44256.48144675926</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24201,10 +23575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:14</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44256.48141203704</v>
       </c>
       <c r="I323" t="n">
         <v>31</v>
@@ -24272,10 +23644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:13</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44256.48140046297</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24358,10 +23728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:33:00</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44256.48125</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24437,10 +23805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:56</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44256.4812037037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24516,10 +23882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:44</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44256.48106481481</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24591,10 +23955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:43</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44256.48105324074</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24663,10 +24025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:29</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44256.4808912037</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24730,10 +24090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:28</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44256.48087962963</v>
       </c>
       <c r="I330" t="n">
         <v>11</v>
@@ -24805,10 +24163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:24</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44256.48083333333</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24872,10 +24228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:16</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44256.48074074074</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24943,10 +24297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:15</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44256.48072916667</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25010,10 +24362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:14</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44256.4807175926</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -25081,10 +24431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:11</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44256.48068287037</v>
       </c>
       <c r="I335" t="n">
         <v>28</v>
@@ -25160,10 +24508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:08</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44256.48064814815</v>
       </c>
       <c r="I336" t="n">
         <v>232</v>
@@ -25239,10 +24585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:07</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44256.48063657407</v>
       </c>
       <c r="I337" t="n">
         <v>441</v>
@@ -25306,10 +24650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:32:05</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44256.48061342593</v>
       </c>
       <c r="I338" t="n">
         <v>47</v>
@@ -25385,10 +24727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:58</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44256.4805324074</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25456,10 +24796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:58</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44256.4805324074</v>
       </c>
       <c r="I340" t="n">
         <v>553</v>
@@ -25528,10 +24866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:57</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44256.48052083333</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25599,10 +24935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:54</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44256.48048611111</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25666,10 +25000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:48</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44256.48041666667</v>
       </c>
       <c r="I343" t="n">
         <v>15</v>
@@ -25737,10 +25069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:38</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44256.48030092593</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25804,10 +25134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:37</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44256.48028935185</v>
       </c>
       <c r="I345" t="n">
         <v>12</v>
@@ -25883,10 +25211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:34</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44256.48025462963</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25962,10 +25288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:27</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44256.48017361111</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -26033,10 +25357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:19</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44256.48008101852</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26096,10 +25418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:17</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44256.48005787037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26167,10 +25487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:16</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44256.4800462963</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26242,10 +25560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:31:12</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44256.48</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26317,10 +25633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:30:58</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44256.47983796296</v>
       </c>
       <c r="I352" t="n">
         <v>142</v>
@@ -26396,10 +25710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:30:56</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44256.47981481482</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
